--- a/Malith/Single diode model/Results/Percentage Errors.xlsx
+++ b/Malith/Single diode model/Results/Percentage Errors.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malit\Desktop\matlabcodes.git\trunk\Malith\Single diode model\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B40B9-6F7B-4E1D-ACC2-085732145F48}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F985848-9D14-4742-9791-3FD6F708F78F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{D8677EA3-9546-452F-84C1-C75A91218655}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{D8677EA3-9546-452F-84C1-C75A91218655}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Orginal cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Literature" sheetId="3" r:id="rId2"/>
+    <sheet name="Pervoskite for presentation" sheetId="4" r:id="rId3"/>
+    <sheet name="not important" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>No noise analytical</t>
   </si>
@@ -113,6 +115,45 @@
   </si>
   <si>
     <t>Percentage Error</t>
+  </si>
+  <si>
+    <t>%Error</t>
+  </si>
+  <si>
+    <t>Our method</t>
+  </si>
+  <si>
+    <t>Bee swarm</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>%difference</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>R_s</t>
+  </si>
+  <si>
+    <t>"(Ω)"</t>
+  </si>
+  <si>
+    <t>R_sh</t>
+  </si>
+  <si>
+    <t>"(kΩ)"</t>
+  </si>
+  <si>
+    <t>(10^(-6) )</t>
+  </si>
+  <si>
+    <t>REFERENCE:::::::https://link.springer.com/content/pdf/10.1007/s40095-015-0198-5.pdf</t>
+  </si>
+  <si>
+    <t>ALL WITH NOISE</t>
   </si>
 </sst>
 </file>
@@ -122,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +210,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +275,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -346,6 +423,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -354,7 +507,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
@@ -376,31 +529,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -410,15 +572,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,12 +584,55 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -456,6 +652,334 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>481584</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1F16DB-7817-4F90-9630-E666F55A11A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10050780" y="434340"/>
+          <a:ext cx="18281904" cy="8721948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>179928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F9D8E6-F9E6-4306-A705-BCFC1F8B305C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="9906000"/>
+          <a:ext cx="18285714" cy="8371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>136046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744F1FF5-D4C8-49C5-9AF7-C6CB4C16BC7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29077920" y="914400"/>
+          <a:ext cx="18285714" cy="8914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>607314</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>141828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF350647-5298-4647-8DFA-4648C622385C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30297120" y="11155680"/>
+          <a:ext cx="18285714" cy="8371428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D535CC59-87C2-434A-98A2-8ABE2223F9CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906780" y="2636520"/>
+          <a:ext cx="10096500" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>595745</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>13791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92997653-E208-481C-AF09-BD8D38A82C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8432" t="1723" r="8534" b="2751"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12704619" y="207817"/>
+          <a:ext cx="13660581" cy="7661501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22438</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EC0D4C-2AD1-45A5-A4A4-AD9E7C979EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562109" y="0"/>
+          <a:ext cx="18285714" cy="8808991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,11 +1278,769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEB93C5-4E1C-4600-B743-80653E467D05}">
+  <dimension ref="A2:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="35"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1000000</v>
+      </c>
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47">
+        <v>6.6916263344539803E-2</v>
+      </c>
+      <c r="F4" s="48">
+        <v>41752.339698621101</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1.0000000000000899</v>
+      </c>
+      <c r="H4" s="45">
+        <f>ABS((E4-B4)/B4)*100</f>
+        <v>33.0837366554602</v>
+      </c>
+      <c r="I4" s="45">
+        <f>ABS((F4-C4)/C4)*100</f>
+        <v>95.824766030137894</v>
+      </c>
+      <c r="J4" s="45">
+        <f>ABS((G4-D4)/D4)*100</f>
+        <v>8.992806499463768E-12</v>
+      </c>
+      <c r="K4" s="49">
+        <v>1.3231982895009701E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>2</v>
+      </c>
+      <c r="B5" s="45">
+        <v>25</v>
+      </c>
+      <c r="C5" s="46">
+        <v>1000000</v>
+      </c>
+      <c r="D5" s="45">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47">
+        <v>25.0536746291328</v>
+      </c>
+      <c r="F5" s="48">
+        <v>4222.7090558960299</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1.0000007693675099</v>
+      </c>
+      <c r="H5" s="45">
+        <f t="shared" ref="H5:J7" si="0">ABS((E5-B5)/B5)*100</f>
+        <v>0.21469851653120028</v>
+      </c>
+      <c r="I5" s="45">
+        <f t="shared" si="0"/>
+        <v>99.577729094410401</v>
+      </c>
+      <c r="J5" s="45">
+        <f t="shared" si="0"/>
+        <v>7.6936750992295799E-5</v>
+      </c>
+      <c r="K5" s="49">
+        <v>4.4053828203003797E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>3</v>
+      </c>
+      <c r="B6" s="45">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="46">
+        <v>200</v>
+      </c>
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1.0000000004436E-4</v>
+      </c>
+      <c r="F6" s="48">
+        <v>207.69470955216099</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1.05527989222937</v>
+      </c>
+      <c r="H6" s="45">
+        <f t="shared" si="0"/>
+        <v>99.899999999955639</v>
+      </c>
+      <c r="I6" s="45">
+        <f t="shared" si="0"/>
+        <v>3.8473547760804938</v>
+      </c>
+      <c r="J6" s="45">
+        <f t="shared" si="0"/>
+        <v>5.527989222937002</v>
+      </c>
+      <c r="K6" s="49">
+        <v>1.11870973441501E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.14014688187669</v>
+      </c>
+      <c r="F7" s="21">
+        <v>6627.8172106529601</v>
+      </c>
+      <c r="G7" s="20">
+        <v>2.4548821343179301</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" si="0"/>
+        <v>40.146881876689996</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>99.337218278934699</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.8047146272827952</v>
+      </c>
+      <c r="K7" s="17">
+        <v>5.2313695083768001E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="20">
+        <v>25.2152749279843</v>
+      </c>
+      <c r="F12" s="21">
+        <v>4581.4071688948197</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2.4227207955868502</v>
+      </c>
+      <c r="H12" s="18">
+        <f t="shared" ref="H12:J15" si="1">ABS((E12-B12)/B12)*100</f>
+        <v>0.86109971193720003</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" si="1"/>
+        <v>99.541859283110526</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="1"/>
+        <v>3.0911681765259935</v>
+      </c>
+      <c r="K12" s="17">
+        <v>3.2008229068686297E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>200</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="20">
+        <v>2.0140897904282699E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>201.56651867651701</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2.53100594423965</v>
+      </c>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
+        <v>79.859102095717304</v>
+      </c>
+      <c r="I13" s="18">
+        <f t="shared" si="1"/>
+        <v>0.78325933825850313</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="1"/>
+        <v>1.240237769585999</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4.1063232257066799E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="19">
+        <f>1000000</f>
+        <v>1000000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>5</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.52642006693801002</v>
+      </c>
+      <c r="F14" s="21">
+        <v>31144.107677772499</v>
+      </c>
+      <c r="G14" s="20">
+        <v>4.7223344844150601</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>426.42006693801005</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" si="1"/>
+        <v>96.885589232222742</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="1"/>
+        <v>5.5533103116987981</v>
+      </c>
+      <c r="K14" s="17">
+        <v>7.6185581484181203E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>8</v>
+      </c>
+      <c r="B15" s="18">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19">
+        <v>200</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="E15" s="20">
+        <v>25.015173819838999</v>
+      </c>
+      <c r="F15" s="21">
+        <v>209.400576492993</v>
+      </c>
+      <c r="G15" s="20">
+        <v>4.9997267279171096</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="1"/>
+        <v>6.0695279355996945E-2</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="1"/>
+        <v>4.7002882464964983</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="1"/>
+        <v>5.4654416578081566E-3</v>
+      </c>
+      <c r="K15" s="17">
+        <v>2.7891270091278801E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:K11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BEED3E-8AEC-4EB5-93D7-A83444FB8560}">
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="63.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="42">
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="C5" s="42">
+        <v>3.6388900000000002E-2</v>
+      </c>
+      <c r="D5" s="43">
+        <f>ABS((B5-C5)/C5)*100</f>
+        <v>17.343475620312788</v>
+      </c>
+      <c r="E5" s="43">
+        <v>43.710500000000003</v>
+      </c>
+      <c r="F5" s="43">
+        <v>53.399990000000003</v>
+      </c>
+      <c r="G5" s="43">
+        <f>ABS((E5-F5)/F5)*100</f>
+        <v>18.145115757512311</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1.4298999999999999</v>
+      </c>
+      <c r="I5" s="43">
+        <v>1.481385</v>
+      </c>
+      <c r="J5" s="43">
+        <f>ABS((H5-I5)/I5)*100</f>
+        <v>3.4754638395825528</v>
+      </c>
+      <c r="K5" s="41">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L5" s="41">
+        <f>0.0009861</f>
+        <v>9.8609999999999995E-4</v>
+      </c>
+      <c r="M5" s="43">
+        <f>((K5-L5)/((L5+K5)/2))*100</f>
+        <v>86.853503915550334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:M7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A436AE7-83B4-4F56-9816-AAD2A814F743}">
+  <dimension ref="B12:F17"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>7.2</v>
+      </c>
+      <c r="D14">
+        <v>3.5</v>
+      </c>
+      <c r="E14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>5.7</v>
+      </c>
+      <c r="D15">
+        <v>21.3</v>
+      </c>
+      <c r="E15">
+        <v>2.1</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2.6</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1.9</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B49F02-B7DF-4105-8C76-0FF25D288B29}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,28 +2061,28 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
@@ -1148,22 +2430,22 @@
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -1403,22 +2685,22 @@
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
     </row>
     <row r="31" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
@@ -1659,22 +2941,22 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30" t="s">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="31" t="s">
+      <c r="I40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -1905,12 +3187,6 @@
     <row r="47" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="I40:K40"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
@@ -1918,405 +3194,12 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="I18:K18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AEB93C5-4E1C-4600-B743-80653E467D05}">
-  <dimension ref="A3:N12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="35"/>
-      <c r="N4" s="37"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
-        <v>-6.5685131135990102E-2</v>
-      </c>
-      <c r="F5" s="25">
-        <v>10461613813.375</v>
-      </c>
-      <c r="G5" s="24">
-        <v>1.0323823890789701</v>
-      </c>
-      <c r="H5" s="23">
-        <v>165.68513113599008</v>
-      </c>
-      <c r="I5" s="23">
-        <v>1046061.3813374999</v>
-      </c>
-      <c r="J5" s="22">
-        <v>3.2382389078970064</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
-        <v>2</v>
-      </c>
-      <c r="B6" s="22">
-        <v>25</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="D6" s="22">
-        <v>1</v>
-      </c>
-      <c r="E6" s="24">
-        <v>24.778315576098599</v>
-      </c>
-      <c r="F6" s="25">
-        <v>1581.7362420739501</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1.05659480612687</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.88673769560560345</v>
-      </c>
-      <c r="I6" s="23">
-        <v>99.841826375792607</v>
-      </c>
-      <c r="J6" s="22">
-        <v>5.6594806126869956</v>
-      </c>
-      <c r="K6" s="19">
-        <v>9.7493255226936695E-5</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="23">
-        <v>200</v>
-      </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
-        <v>-0.13991419278600001</v>
-      </c>
-      <c r="F7" s="25">
-        <v>200.13559774463499</v>
-      </c>
-      <c r="G7" s="24">
-        <v>1.0353371627424</v>
-      </c>
-      <c r="H7" s="23">
-        <v>239.914192786</v>
-      </c>
-      <c r="I7" s="23">
-        <v>6.7798872317496262E-2</v>
-      </c>
-      <c r="J7" s="22">
-        <v>3.5337162742399952</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="D8" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="E8" s="24">
-        <v>-0.30126526425139399</v>
-      </c>
-      <c r="F8" s="25">
-        <v>15065.310937472599</v>
-      </c>
-      <c r="G8" s="24">
-        <v>2.5956788292733002</v>
-      </c>
-      <c r="H8" s="23">
-        <v>401.26526425139389</v>
-      </c>
-      <c r="I8" s="23">
-        <v>98.49346890625273</v>
-      </c>
-      <c r="J8" s="22">
-        <v>3.8271531709320072</v>
-      </c>
-      <c r="K8" s="19">
-        <v>8.1964784530016207E-3</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
-        <v>5</v>
-      </c>
-      <c r="B9" s="22">
-        <v>25</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1000000</v>
-      </c>
-      <c r="D9" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="24">
-        <v>24.566069149634199</v>
-      </c>
-      <c r="F9" s="25">
-        <v>343.58004757997298</v>
-      </c>
-      <c r="G9" s="24">
-        <v>2.3284200309844998</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1.7357234014632041</v>
-      </c>
-      <c r="I9" s="23">
-        <v>99.965641995242009</v>
-      </c>
-      <c r="J9" s="22">
-        <v>6.8631987606200084</v>
-      </c>
-      <c r="K9" s="19">
-        <v>2.27766616440865E-4</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
-        <v>6</v>
-      </c>
-      <c r="B10" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="23">
-        <v>200</v>
-      </c>
-      <c r="D10" s="22">
-        <v>2.5</v>
-      </c>
-      <c r="E10" s="24">
-        <v>-0.82223031555517401</v>
-      </c>
-      <c r="F10" s="25">
-        <v>204.74200301258099</v>
-      </c>
-      <c r="G10" s="24">
-        <v>2.7767053540041999</v>
-      </c>
-      <c r="H10" s="23">
-        <v>922.23031555517389</v>
-      </c>
-      <c r="I10" s="23">
-        <v>2.3710015062904972</v>
-      </c>
-      <c r="J10" s="22">
-        <v>11.068214160167997</v>
-      </c>
-      <c r="K10" s="19">
-        <v>2.9247193676547002E-3</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
-        <v>7</v>
-      </c>
-      <c r="B11" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="23">
-        <f>1000000</f>
-        <v>1000000</v>
-      </c>
-      <c r="D11" s="22">
-        <v>5</v>
-      </c>
-      <c r="E11" s="24">
-        <v>-0.198519615789714</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1542.5552922093</v>
-      </c>
-      <c r="G11" s="24">
-        <v>4.7300293797460098</v>
-      </c>
-      <c r="H11" s="23">
-        <v>298.51961578971395</v>
-      </c>
-      <c r="I11" s="23">
-        <v>99.845744470779067</v>
-      </c>
-      <c r="J11" s="22">
-        <v>5.3994124050798042</v>
-      </c>
-      <c r="K11" s="19">
-        <v>5.6974132000115504E-4</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>8</v>
-      </c>
-      <c r="B12" s="22">
-        <v>25</v>
-      </c>
-      <c r="C12" s="23">
-        <v>200</v>
-      </c>
-      <c r="D12" s="22">
-        <v>5</v>
-      </c>
-      <c r="E12" s="24">
-        <v>16.7843026364358</v>
-      </c>
-      <c r="F12" s="25">
-        <v>126.281598918879</v>
-      </c>
-      <c r="G12" s="24">
-        <v>7.0001762249570501</v>
-      </c>
-      <c r="H12" s="23">
-        <v>32.862789454256799</v>
-      </c>
-      <c r="I12" s="23">
-        <v>36.859200540560501</v>
-      </c>
-      <c r="J12" s="22">
-        <v>40.003524499141001</v>
-      </c>
-      <c r="K12" s="19">
-        <v>3.5921709675837703E-4</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="I40:K40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
